--- a/hardware/Ambient_RPI_Shield_final/BOM RPI SHIELD.xlsx
+++ b/hardware/Ambient_RPI_Shield_final/BOM RPI SHIELD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Desktop\Ambient_RPI_Shield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Documents\GitHub\teammmd\hardware\Ambient_RPI_Shield_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>C9</t>
+  </si>
+  <si>
+    <t>total amount</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -196,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -227,6 +236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,22 +524,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,8 +563,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -569,8 +592,15 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>E2*10</f>
+        <v>10</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -592,8 +622,15 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H16" si="0">E3*10</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -615,8 +652,18 @@
       <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -638,8 +685,15 @@
       <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -661,8 +715,15 @@
       <c r="G7" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -684,8 +745,15 @@
       <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
@@ -707,8 +775,15 @@
       <c r="G9" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -730,8 +805,18 @@
       <c r="G10" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -747,8 +832,15 @@
       <c r="G12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -766,8 +858,15 @@
       <c r="G13" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -783,8 +882,18 @@
       <c r="G14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -803,6 +912,13 @@
       </c>
       <c r="G16" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
